--- a/07_振り返り/11_開発体験シート.xlsx
+++ b/07_振り返り/11_開発体験シート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03713344-87A3-4127-B9B3-33C72AA461A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356F42C0-5BA5-4C91-9D8B-2C3BDF1B33CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="225" windowWidth="17235" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="1050" windowWidth="16350" windowHeight="10695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開発体験シート" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
   <si>
     <t>体験項目</t>
     <rPh sb="0" eb="2">
@@ -666,19 +666,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実績を毎日記録しておけばよかった</t>
-    <rPh sb="0" eb="2">
-      <t>ジッセキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>マイニチ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スケジュールがあるとそれに遅れないように作業が出来た</t>
     <rPh sb="13" eb="14">
       <t>オク</t>
@@ -704,6 +691,45 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第2反復は遅れなかった</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第1：実績を毎日記録しておけばよかった
+第2：毎日ではないが、更新した</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>マイニチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>マイニチ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1207,7 +1233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1423,6 +1449,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1899,10 +1928,10 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="I17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1954,11 +1983,13 @@
       <c r="E9" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="38"/>
+      <c r="F9" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="G9" s="38"/>
       <c r="H9" s="51" t="str">
         <f>IF(COUNTIF(E9:G9,"*●*"),"●",IF(COUNTIF(E9:G9,"*○*"),"○","－"))</f>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>62</v>
@@ -1975,11 +2006,13 @@
       <c r="E10" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="39"/>
+      <c r="F10" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G10" s="39"/>
       <c r="H10" s="39" t="str">
         <f t="shared" ref="H10:H37" si="0">IF(COUNTIF(E10:G10,"*●*"),"●",IF(COUNTIF(E10:G10,"*○*"),"○","－"))</f>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -1994,7 +2027,9 @@
       <c r="E11" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="40"/>
+      <c r="F11" s="40" t="s">
+        <v>58</v>
+      </c>
       <c r="G11" s="40"/>
       <c r="H11" s="42" t="str">
         <f t="shared" si="0"/>
@@ -2015,7 +2050,9 @@
       <c r="E12" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="G12" s="42"/>
       <c r="H12" s="51" t="str">
         <f t="shared" si="0"/>
@@ -2036,7 +2073,9 @@
       <c r="E13" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="39"/>
+      <c r="F13" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G13" s="39"/>
       <c r="H13" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2076,7 +2115,9 @@
       <c r="E15" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="42"/>
+      <c r="F15" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="G15" s="42"/>
       <c r="H15" s="51" t="str">
         <f t="shared" si="0"/>
@@ -2095,11 +2136,13 @@
       <c r="E16" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="39"/>
+      <c r="F16" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G16" s="39"/>
       <c r="H16" s="39" t="str">
         <f>IF(COUNTIF(E16:G16,"*●*"),"●",IF(COUNTIF(E16:G16,"*○*"),"○","－"))</f>
-        <v>－</v>
+        <v>○</v>
       </c>
       <c r="I16" s="9"/>
     </row>
@@ -2133,7 +2176,9 @@
       <c r="E18" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="G18" s="38"/>
       <c r="H18" s="51" t="str">
         <f>IF(COUNTIF(E18:G18,"*●*"),"●",IF(COUNTIF(E18:G18,"*○*"),"○","－"))</f>
@@ -2152,11 +2197,13 @@
       <c r="E19" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="40"/>
+      <c r="F19" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="G19" s="40"/>
       <c r="H19" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I19" s="13"/>
     </row>
@@ -2173,7 +2220,9 @@
       <c r="E20" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="42"/>
+      <c r="F20" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="G20" s="42"/>
       <c r="H20" s="51" t="str">
         <f>IF(COUNTIF(E20:G20,"*●*"),"●",IF(COUNTIF(E20:G20,"*○*"),"○","－"))</f>
@@ -2192,7 +2241,9 @@
       <c r="E21" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="39"/>
+      <c r="F21" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G21" s="39"/>
       <c r="H21" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2213,7 +2264,9 @@
       <c r="E22" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="39"/>
+      <c r="F22" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G22" s="39"/>
       <c r="H22" s="53" t="str">
         <f t="shared" si="0"/>
@@ -2230,7 +2283,9 @@
       <c r="E23" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="39"/>
+      <c r="F23" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G23" s="39"/>
       <c r="H23" s="39" t="str">
         <f>IF(COUNTIF(E23:G23,"*●*"),"●",IF(COUNTIF(E23:G23,"*○*"),"○","－"))</f>
@@ -2251,11 +2306,13 @@
       <c r="E24" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="39"/>
+      <c r="F24" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G24" s="39"/>
       <c r="H24" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>－</v>
+        <v>○</v>
       </c>
       <c r="I24" s="9"/>
     </row>
@@ -2268,7 +2325,9 @@
       <c r="E25" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="40"/>
+      <c r="F25" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="G25" s="40"/>
       <c r="H25" s="42" t="str">
         <f t="shared" si="0"/>
@@ -2289,7 +2348,9 @@
       <c r="E26" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="42"/>
+      <c r="F26" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="G26" s="42"/>
       <c r="H26" s="51" t="str">
         <f>IF(COUNTIF(E26:G26,"*●*"),"●",IF(COUNTIF(E26:G26,"*○*"),"○","－"))</f>
@@ -2306,11 +2367,13 @@
       <c r="E27" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="39"/>
+      <c r="F27" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G27" s="39"/>
       <c r="H27" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>－</v>
+        <v>●</v>
       </c>
       <c r="I27" s="5"/>
     </row>
@@ -2323,11 +2386,13 @@
       <c r="E28" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="40"/>
+      <c r="F28" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="G28" s="40"/>
       <c r="H28" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>66</v>
@@ -2346,7 +2411,9 @@
       <c r="E29" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="42"/>
+      <c r="F29" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="G29" s="42"/>
       <c r="H29" s="51" t="str">
         <f>IF(COUNTIF(E29:G29,"*●*"),"●",IF(COUNTIF(E29:G29,"*○*"),"○","－"))</f>
@@ -2363,14 +2430,16 @@
       <c r="E30" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="39"/>
+      <c r="F30" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="G30" s="39"/>
       <c r="H30" s="39" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2382,17 +2451,19 @@
       <c r="E31" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="39"/>
+      <c r="F31" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G31" s="39"/>
       <c r="H31" s="53" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="27" x14ac:dyDescent="0.15">
       <c r="B32" s="55"/>
       <c r="C32" s="35" t="s">
         <v>48</v>
@@ -2403,14 +2474,16 @@
       <c r="E32" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="39"/>
+      <c r="F32" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G32" s="39"/>
       <c r="H32" s="39" t="str">
         <f>IF(COUNTIF(E32:G32,"*●*"),"●",IF(COUNTIF(E32:G32,"*○*"),"○","－"))</f>
-        <v>－</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>67</v>
+        <v>○</v>
+      </c>
+      <c r="I32" s="72" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2422,11 +2495,13 @@
       <c r="E33" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="39"/>
+      <c r="F33" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G33" s="39"/>
       <c r="H33" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I33" s="9"/>
     </row>
@@ -2439,13 +2514,17 @@
       <c r="E34" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="39"/>
+      <c r="F34" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="G34" s="39"/>
       <c r="H34" s="53" t="str">
         <f t="shared" si="0"/>
         <v>－</v>
       </c>
-      <c r="I34" s="9"/>
+      <c r="I34" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="35" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="55"/>
@@ -2458,7 +2537,9 @@
       <c r="E35" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="41"/>
+      <c r="F35" s="41" t="s">
+        <v>56</v>
+      </c>
       <c r="G35" s="41"/>
       <c r="H35" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2475,7 +2556,9 @@
       <c r="E36" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="39"/>
+      <c r="F36" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G36" s="39"/>
       <c r="H36" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2492,7 +2575,9 @@
       <c r="E37" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="F37" s="40"/>
+      <c r="F37" s="40" t="s">
+        <v>58</v>
+      </c>
       <c r="G37" s="40"/>
       <c r="H37" s="42" t="str">
         <f t="shared" si="0"/>
@@ -2710,12 +2795,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2724,23 +2803,29 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDB2C106-B6D0-41D2-8BD0-A705B1CF52E5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05598B5E-BEA9-4BC5-8659-8F42A5937129}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>